--- a/test-data/Admin.xlsx
+++ b/test-data/Admin.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK86"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7487,72 +7487,6982 @@
           <t>298</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="inlineStr"/>
-      <c r="AA86" t="inlineStr"/>
-      <c r="AB86" t="inlineStr"/>
-      <c r="AC86" t="inlineStr"/>
-      <c r="AD86" t="inlineStr"/>
-      <c r="AE86" t="inlineStr"/>
-      <c r="AF86" t="inlineStr"/>
-      <c r="AG86" t="inlineStr"/>
-      <c r="AH86" t="inlineStr"/>
-      <c r="AI86" t="inlineStr"/>
-      <c r="AJ86" t="inlineStr"/>
       <c r="AK86" t="inlineStr">
         <is>
           <t>14:35:26</t>
         </is>
       </c>
-      <c r="AL86" t="inlineStr"/>
-      <c r="AM86" t="inlineStr"/>
-      <c r="AN86" t="inlineStr"/>
-      <c r="AO86" t="inlineStr"/>
-      <c r="AP86" t="inlineStr"/>
-      <c r="AQ86" t="inlineStr"/>
-      <c r="AR86" t="inlineStr"/>
-      <c r="AS86" t="inlineStr"/>
-      <c r="AT86" t="inlineStr"/>
-      <c r="AU86" t="inlineStr"/>
-      <c r="AV86" t="inlineStr"/>
-      <c r="AW86" t="inlineStr"/>
-      <c r="AX86" t="inlineStr"/>
-      <c r="AY86" t="inlineStr"/>
-      <c r="AZ86" t="inlineStr"/>
-      <c r="BA86" t="inlineStr"/>
-      <c r="BB86" t="inlineStr"/>
-      <c r="BC86" t="inlineStr"/>
-      <c r="BD86" t="inlineStr"/>
-      <c r="BE86" t="inlineStr"/>
-      <c r="BF86" t="inlineStr"/>
-      <c r="BG86" t="inlineStr"/>
-      <c r="BH86" t="inlineStr"/>
-      <c r="BI86" t="inlineStr"/>
-      <c r="BJ86" t="inlineStr"/>
-      <c r="BK86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="AG87" t="inlineStr">
+        <is>
+          <t>13:32:51</t>
+        </is>
+      </c>
+      <c r="AI87" t="inlineStr">
+        <is>
+          <t>15:18:02</t>
+        </is>
+      </c>
+      <c r="AK87" t="inlineStr">
+        <is>
+          <t>14:33:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>08:37:51</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>17:04:39</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>15:55:46</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>08:47:12</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>15:48:36</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>08:36:05</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>08:48:12</t>
+        </is>
+      </c>
+      <c r="AD88" t="inlineStr">
+        <is>
+          <t>08:43:09</t>
+        </is>
+      </c>
+      <c r="AE88" t="inlineStr">
+        <is>
+          <t>16:40:43</t>
+        </is>
+      </c>
+      <c r="AF88" t="inlineStr">
+        <is>
+          <t>08:40:13</t>
+        </is>
+      </c>
+      <c r="AG88" t="inlineStr">
+        <is>
+          <t>16:43:19</t>
+        </is>
+      </c>
+      <c r="AH88" t="inlineStr">
+        <is>
+          <t>08:43:12</t>
+        </is>
+      </c>
+      <c r="AI88" t="inlineStr">
+        <is>
+          <t>16:13:00</t>
+        </is>
+      </c>
+      <c r="AJ88" t="inlineStr">
+        <is>
+          <t>08:40:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>06:44:53</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>14:14:35</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>06:50:17</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>14:07:33</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>06:43:08</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>14:02:27</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>06:41:44</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>14:02:30</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>07:03:59</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>14:01:11</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>06:51:45</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>14:01:08</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>06:59:49</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>14:00:17</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>07:00:02</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>14:00:31</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>06:21:37</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>15:16:04</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>06:17:02</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>14:07:25</t>
+        </is>
+      </c>
+      <c r="AD89" t="inlineStr">
+        <is>
+          <t>06:28:33</t>
+        </is>
+      </c>
+      <c r="AE89" t="inlineStr">
+        <is>
+          <t>14:00:34</t>
+        </is>
+      </c>
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>05:58:55</t>
+        </is>
+      </c>
+      <c r="AG89" t="inlineStr">
+        <is>
+          <t>14:00:52</t>
+        </is>
+      </c>
+      <c r="AH89" t="inlineStr">
+        <is>
+          <t>06:07:22</t>
+        </is>
+      </c>
+      <c r="AI89" t="inlineStr">
+        <is>
+          <t>14:02:47</t>
+        </is>
+      </c>
+      <c r="AJ89" t="inlineStr">
+        <is>
+          <t>05:58:54</t>
+        </is>
+      </c>
+      <c r="AK89" t="inlineStr">
+        <is>
+          <t>14:09:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>06:48:07</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>14:14:40</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>06:42:37</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>14:15:13</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>06:37:38</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>14:02:18</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>06:40:50</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>14:02:36</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>06:43:04</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>14:01:16</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>06:51:20</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>14:01:18</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>06:42:53</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>13:56:49</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>06:39:49</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>14:00:53</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>06:30:59</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>14:01:04</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>06:19:44</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>14:07:22</t>
+        </is>
+      </c>
+      <c r="AD90" t="inlineStr">
+        <is>
+          <t>06:26:47</t>
+        </is>
+      </c>
+      <c r="AE90" t="inlineStr">
+        <is>
+          <t>14:00:59</t>
+        </is>
+      </c>
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>06:17:20</t>
+        </is>
+      </c>
+      <c r="AG90" t="inlineStr">
+        <is>
+          <t>14:01:02</t>
+        </is>
+      </c>
+      <c r="AH90" t="inlineStr">
+        <is>
+          <t>06:15:19</t>
+        </is>
+      </c>
+      <c r="AI90" t="inlineStr">
+        <is>
+          <t>14:13:39</t>
+        </is>
+      </c>
+      <c r="AJ90" t="inlineStr">
+        <is>
+          <t>06:11:04</t>
+        </is>
+      </c>
+      <c r="AK90" t="inlineStr">
+        <is>
+          <t>14:09:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>06:42:11</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>06:51:21</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>13:55:39</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>06:47:04</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>13:59:05</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>06:53:56</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>13:58:08</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>07:11:31</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>13:46:48</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>13:57:41</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>06:58:00</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>13:50:29</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>07:05:19</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>13:51:51</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>06:54:07</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>13:57:54</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>06:48:33</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>14:10:24</t>
+        </is>
+      </c>
+      <c r="AH91" t="inlineStr">
+        <is>
+          <t>06:55:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>07:18:18</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>14:00:48</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>07:36:08</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>16:44:51</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>07:28:44</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>14:09:04</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>07:41:00</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>12:58:09</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>14:00:17</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>07:26:34</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>13:57:50</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>07:28:12</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>13:48:28</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>07:19:34</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>13:42:27</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>07:24:07</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>12:55:51</t>
+        </is>
+      </c>
+      <c r="AD92" t="inlineStr">
+        <is>
+          <t>07:05:09</t>
+        </is>
+      </c>
+      <c r="AE92" t="inlineStr">
+        <is>
+          <t>13:55:19</t>
+        </is>
+      </c>
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>07:12:28</t>
+        </is>
+      </c>
+      <c r="AG92" t="inlineStr">
+        <is>
+          <t>13:58:55</t>
+        </is>
+      </c>
+      <c r="AI92" t="inlineStr">
+        <is>
+          <t>14:04:40</t>
+        </is>
+      </c>
+      <c r="AJ92" t="inlineStr">
+        <is>
+          <t>07:18:30</t>
+        </is>
+      </c>
+      <c r="AK92" t="inlineStr">
+        <is>
+          <t>12:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>09:38:53</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>07:30:17</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>07:29:28</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>07:46:34</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>13:06:21</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>16:00:33</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>08:07:27</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>15:36:31</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>09:49:23</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>13:52:32</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>09:53:20</t>
+        </is>
+      </c>
+      <c r="AD93" t="inlineStr">
+        <is>
+          <t>10:30:42</t>
+        </is>
+      </c>
+      <c r="AH93" t="inlineStr">
+        <is>
+          <t>09:14:37</t>
+        </is>
+      </c>
+      <c r="AI93" t="inlineStr">
+        <is>
+          <t>14:41:27</t>
+        </is>
+      </c>
+      <c r="AJ93" t="inlineStr">
+        <is>
+          <t>09:07:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>08:44:16</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>08:39:09</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>08:51:25</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>17:04:47</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>08:55:10</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>09:22:13</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>15:55:52</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>08:47:22</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>08:50:19</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>15:50:07</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>08:36:25</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>15:51:51</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>08:48:17</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>16:54:58</t>
+        </is>
+      </c>
+      <c r="AD94" t="inlineStr">
+        <is>
+          <t>08:43:59</t>
+        </is>
+      </c>
+      <c r="AE94" t="inlineStr">
+        <is>
+          <t>16:40:39</t>
+        </is>
+      </c>
+      <c r="AF94" t="inlineStr">
+        <is>
+          <t>08:40:04</t>
+        </is>
+      </c>
+      <c r="AG94" t="inlineStr">
+        <is>
+          <t>16:44:05</t>
+        </is>
+      </c>
+      <c r="AH94" t="inlineStr">
+        <is>
+          <t>08:43:16</t>
+        </is>
+      </c>
+      <c r="AI94" t="inlineStr">
+        <is>
+          <t>16:12:54</t>
+        </is>
+      </c>
+      <c r="AJ94" t="inlineStr">
+        <is>
+          <t>08:41:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>09:50:57</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>08:42:21</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>16:34:32</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>08:47:30</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>16:04:34</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>08:38:00</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>16:11:24</t>
+        </is>
+      </c>
+      <c r="AD95" t="inlineStr">
+        <is>
+          <t>08:29:53</t>
+        </is>
+      </c>
+      <c r="AE95" t="inlineStr">
+        <is>
+          <t>16:37:34</t>
+        </is>
+      </c>
+      <c r="AF95" t="inlineStr">
+        <is>
+          <t>08:39:03</t>
+        </is>
+      </c>
+      <c r="AG95" t="inlineStr">
+        <is>
+          <t>16:42:52</t>
+        </is>
+      </c>
+      <c r="AH95" t="inlineStr">
+        <is>
+          <t>08:53:42</t>
+        </is>
+      </c>
+      <c r="AJ95" t="inlineStr">
+        <is>
+          <t>08:34:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>07:51:41</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>15:42:52</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>07:50:12</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>13:28:04</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>07:50:43</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>15:45:43</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>07:46:06</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>07:51:23</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>14:58:35</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>15:47:10</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>07:49:14</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>15:52:49</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>11:52:02</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>07:46:24</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>15:40:21</t>
+        </is>
+      </c>
+      <c r="AD96" t="inlineStr">
+        <is>
+          <t>07:51:34</t>
+        </is>
+      </c>
+      <c r="AE96" t="inlineStr">
+        <is>
+          <t>15:52:26</t>
+        </is>
+      </c>
+      <c r="AF96" t="inlineStr">
+        <is>
+          <t>07:56:13</t>
+        </is>
+      </c>
+      <c r="AG96" t="inlineStr">
+        <is>
+          <t>15:50:22</t>
+        </is>
+      </c>
+      <c r="AH96" t="inlineStr">
+        <is>
+          <t>07:51:09</t>
+        </is>
+      </c>
+      <c r="AI96" t="inlineStr">
+        <is>
+          <t>15:46:50</t>
+        </is>
+      </c>
+      <c r="AJ96" t="inlineStr">
+        <is>
+          <t>07:47:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>07:46:42</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>15:44:25</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>07:44:46</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>16:04:38</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>07:47:54</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>15:45:51</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>07:52:21</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>15:32:30</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>08:12:43</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>14:50:10</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>07:46:58</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>15:36:44</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>07:50:59</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>15:34:21</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>10:42:38</t>
+        </is>
+      </c>
+      <c r="AD97" t="inlineStr">
+        <is>
+          <t>07:56:57</t>
+        </is>
+      </c>
+      <c r="AE97" t="inlineStr">
+        <is>
+          <t>15:42:33</t>
+        </is>
+      </c>
+      <c r="AF97" t="inlineStr">
+        <is>
+          <t>07:45:19</t>
+        </is>
+      </c>
+      <c r="AG97" t="inlineStr">
+        <is>
+          <t>15:45:21</t>
+        </is>
+      </c>
+      <c r="AH97" t="inlineStr">
+        <is>
+          <t>07:51:28</t>
+        </is>
+      </c>
+      <c r="AI97" t="inlineStr">
+        <is>
+          <t>15:42:40</t>
+        </is>
+      </c>
+      <c r="AJ97" t="inlineStr">
+        <is>
+          <t>07:56:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>08:58:58</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>15:15:51</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>09:09:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>08:39:02</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>15:38:11</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>08:36:40</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>15:31:18</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>08:05:02</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>14:17:15</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>08:42:19</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>15:40:09</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>09:22:52</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>15:41:41</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>08:02:49</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>08:03:09</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>14:51:32</t>
+        </is>
+      </c>
+      <c r="AD99" t="inlineStr">
+        <is>
+          <t>08:55:40</t>
+        </is>
+      </c>
+      <c r="AE99" t="inlineStr">
+        <is>
+          <t>15:56:21</t>
+        </is>
+      </c>
+      <c r="AF99" t="inlineStr">
+        <is>
+          <t>08:10:26</t>
+        </is>
+      </c>
+      <c r="AG99" t="inlineStr">
+        <is>
+          <t>15:44:40</t>
+        </is>
+      </c>
+      <c r="AH99" t="inlineStr">
+        <is>
+          <t>07:56:58</t>
+        </is>
+      </c>
+      <c r="AI99" t="inlineStr">
+        <is>
+          <t>15:57:00</t>
+        </is>
+      </c>
+      <c r="AJ99" t="inlineStr">
+        <is>
+          <t>08:11:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>08:34:36</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>14:32:06</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>08:27:56</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>15:12:32</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>11:21:30</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>08:24:02</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>16:23:41</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>08:20:40</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>16:21:40</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>08:21:48</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>15:12:50</t>
+        </is>
+      </c>
+      <c r="AD100" t="inlineStr">
+        <is>
+          <t>08:25:08</t>
+        </is>
+      </c>
+      <c r="AE100" t="inlineStr">
+        <is>
+          <t>16:30:36</t>
+        </is>
+      </c>
+      <c r="AF100" t="inlineStr">
+        <is>
+          <t>08:32:32</t>
+        </is>
+      </c>
+      <c r="AG100" t="inlineStr">
+        <is>
+          <t>16:27:30</t>
+        </is>
+      </c>
+      <c r="AH100" t="inlineStr">
+        <is>
+          <t>08:29:39</t>
+        </is>
+      </c>
+      <c r="AI100" t="inlineStr">
+        <is>
+          <t>16:30:52</t>
+        </is>
+      </c>
+      <c r="AJ100" t="inlineStr">
+        <is>
+          <t>08:18:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>08:54:43</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>15:47:02</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>09:15:36</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>15:55:57</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>08:47:26</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>08:56:17</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>15:48:40</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>09:11:34</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>15:55:03</t>
+        </is>
+      </c>
+      <c r="AD101" t="inlineStr">
+        <is>
+          <t>08:54:29</t>
+        </is>
+      </c>
+      <c r="AE101" t="inlineStr">
+        <is>
+          <t>16:08:11</t>
+        </is>
+      </c>
+      <c r="AF101" t="inlineStr">
+        <is>
+          <t>08:26:58</t>
+        </is>
+      </c>
+      <c r="AG101" t="inlineStr">
+        <is>
+          <t>16:09:48</t>
+        </is>
+      </c>
+      <c r="AH101" t="inlineStr">
+        <is>
+          <t>08:18:54</t>
+        </is>
+      </c>
+      <c r="AI101" t="inlineStr">
+        <is>
+          <t>15:58:15</t>
+        </is>
+      </c>
+      <c r="AJ101" t="inlineStr">
+        <is>
+          <t>08:13:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>09:00:54</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>15:54:34</t>
+        </is>
+      </c>
+      <c r="AD102" t="inlineStr">
+        <is>
+          <t>08:50:54</t>
+        </is>
+      </c>
+      <c r="AE102" t="inlineStr">
+        <is>
+          <t>16:24:42</t>
+        </is>
+      </c>
+      <c r="AF102" t="inlineStr">
+        <is>
+          <t>08:36:19</t>
+        </is>
+      </c>
+      <c r="AH102" t="inlineStr">
+        <is>
+          <t>08:36:42</t>
+        </is>
+      </c>
+      <c r="AI102" t="inlineStr">
+        <is>
+          <t>16:22:29</t>
+        </is>
+      </c>
+      <c r="AJ102" t="inlineStr">
+        <is>
+          <t>08:32:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>15:38:34</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>06:16:34</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>14:15:16</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>06:49:35</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>06:42:50</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>13:07:15</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>14:00:26</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>16:18:37</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>05:49:19</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>15:11:29</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>06:16:33</t>
+        </is>
+      </c>
+      <c r="AI103" t="inlineStr">
+        <is>
+          <t>16:52:41</t>
+        </is>
+      </c>
+      <c r="AJ103" t="inlineStr">
+        <is>
+          <t>06:11:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>09:26:49</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>09:36:32</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>09:38:04</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>09:32:19</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>09:43:10</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>09:40:58</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>09:37:41</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>09:41:38</t>
+        </is>
+      </c>
+      <c r="AF104" t="inlineStr">
+        <is>
+          <t>09:38:15</t>
+        </is>
+      </c>
+      <c r="AH104" t="inlineStr">
+        <is>
+          <t>09:34:55</t>
+        </is>
+      </c>
+      <c r="AJ104" t="inlineStr">
+        <is>
+          <t>09:30:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>09:05:01</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>08:25:50</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>08:20:12</t>
+        </is>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>08:18:38</t>
+        </is>
+      </c>
+      <c r="AD105" t="inlineStr">
+        <is>
+          <t>09:27:23</t>
+        </is>
+      </c>
+      <c r="AF105" t="inlineStr">
+        <is>
+          <t>08:14:58</t>
+        </is>
+      </c>
+      <c r="AH105" t="inlineStr">
+        <is>
+          <t>09:14:44</t>
+        </is>
+      </c>
+      <c r="AJ105" t="inlineStr">
+        <is>
+          <t>08:24:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>09:36:19</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>15:42:46</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>09:37:56</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>13:58:32</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>09:37:54</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>09:41:45</t>
+        </is>
+      </c>
+      <c r="AF106" t="inlineStr">
+        <is>
+          <t>09:37:28</t>
+        </is>
+      </c>
+      <c r="AH106" t="inlineStr">
+        <is>
+          <t>09:34:49</t>
+        </is>
+      </c>
+      <c r="AJ106" t="inlineStr">
+        <is>
+          <t>09:28:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>09:14:37</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>14:56:37</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>09:10:47</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>15:10:54</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>09:26:30</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>14:16:59</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>09:13:36</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>14:28:20</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>08:40:10</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>15:17:44</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>15:37:11</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>08:20:58</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>15:16:02</t>
+        </is>
+      </c>
+      <c r="AD107" t="inlineStr">
+        <is>
+          <t>08:26:32</t>
+        </is>
+      </c>
+      <c r="AE107" t="inlineStr">
+        <is>
+          <t>15:58:35</t>
+        </is>
+      </c>
+      <c r="AF107" t="inlineStr">
+        <is>
+          <t>08:50:49</t>
+        </is>
+      </c>
+      <c r="AG107" t="inlineStr">
+        <is>
+          <t>15:41:15</t>
+        </is>
+      </c>
+      <c r="AH107" t="inlineStr">
+        <is>
+          <t>09:07:33</t>
+        </is>
+      </c>
+      <c r="AI107" t="inlineStr">
+        <is>
+          <t>13:02:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>08:59:13</t>
+        </is>
+      </c>
+      <c r="AF108" t="inlineStr">
+        <is>
+          <t>08:51:12</t>
+        </is>
+      </c>
+      <c r="AJ108" t="inlineStr">
+        <is>
+          <t>09:09:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>08:08:20</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>15:23:27</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>08:33:18</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>15:38:43</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>08:22:13</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>15:47:11</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>08:44:32</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>14:31:30</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>15:11:04</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>08:28:48</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>14:04:14</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>08:44:37</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>15:52:08</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>08:11:42</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>15:42:34</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>08:21:56</t>
+        </is>
+      </c>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>16:27:04</t>
+        </is>
+      </c>
+      <c r="AF109" t="inlineStr">
+        <is>
+          <t>08:32:56</t>
+        </is>
+      </c>
+      <c r="AH109" t="inlineStr">
+        <is>
+          <t>08:27:45</t>
+        </is>
+      </c>
+      <c r="AI109" t="inlineStr">
+        <is>
+          <t>15:51:07</t>
+        </is>
+      </c>
+      <c r="AJ109" t="inlineStr">
+        <is>
+          <t>08:13:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>08:34:27</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>14:56:43</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>08:37:19</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>13:35:44</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>08:54:36</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>13:13:33</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>11:52:43</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>14:10:38</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>08:38:56</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>08:40:23</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>15:44:19</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>08:11:50</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>15:43:12</t>
+        </is>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>08:21:19</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>15:39:30</t>
+        </is>
+      </c>
+      <c r="AD110" t="inlineStr">
+        <is>
+          <t>08:26:54</t>
+        </is>
+      </c>
+      <c r="AE110" t="inlineStr">
+        <is>
+          <t>15:56:27</t>
+        </is>
+      </c>
+      <c r="AF110" t="inlineStr">
+        <is>
+          <t>08:28:53</t>
+        </is>
+      </c>
+      <c r="AG110" t="inlineStr">
+        <is>
+          <t>15:51:11</t>
+        </is>
+      </c>
+      <c r="AH110" t="inlineStr">
+        <is>
+          <t>08:34:25</t>
+        </is>
+      </c>
+      <c r="AI110" t="inlineStr">
+        <is>
+          <t>15:48:53</t>
+        </is>
+      </c>
+      <c r="AJ110" t="inlineStr">
+        <is>
+          <t>08:12:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>08:30:01</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>12:40:16</t>
+        </is>
+      </c>
+      <c r="AF111" t="inlineStr">
+        <is>
+          <t>08:50:43</t>
+        </is>
+      </c>
+      <c r="AG111" t="inlineStr">
+        <is>
+          <t>14:21:22</t>
+        </is>
+      </c>
+      <c r="AH111" t="inlineStr">
+        <is>
+          <t>08:49:44</t>
+        </is>
+      </c>
+      <c r="AJ111" t="inlineStr">
+        <is>
+          <t>08:40:36</t>
+        </is>
+      </c>
+      <c r="AK111" t="inlineStr">
+        <is>
+          <t>14:04:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>09:55:21</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>15:51:36</t>
+        </is>
+      </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>10:07:03</t>
+        </is>
+      </c>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>16:03:15</t>
+        </is>
+      </c>
+      <c r="AD112" t="inlineStr">
+        <is>
+          <t>09:38:22</t>
+        </is>
+      </c>
+      <c r="AE112" t="inlineStr">
+        <is>
+          <t>15:59:23</t>
+        </is>
+      </c>
+      <c r="AG112" t="inlineStr">
+        <is>
+          <t>16:03:50</t>
+        </is>
+      </c>
+      <c r="AI112" t="inlineStr">
+        <is>
+          <t>16:12:57</t>
+        </is>
+      </c>
+      <c r="AJ112" t="inlineStr">
+        <is>
+          <t>09:59:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>08:16:40</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>15:34:44</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>08:20:31</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>15:12:10</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>08:13:44</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>15:26:44</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>08:20:23</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>14:07:53</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>13:37:26</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>08:24:20</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>15:59:19</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>08:13:07</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>15:58:17</t>
+        </is>
+      </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>08:21:05</t>
+        </is>
+      </c>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>15:40:13</t>
+        </is>
+      </c>
+      <c r="AD113" t="inlineStr">
+        <is>
+          <t>08:17:41</t>
+        </is>
+      </c>
+      <c r="AE113" t="inlineStr">
+        <is>
+          <t>16:00:19</t>
+        </is>
+      </c>
+      <c r="AF113" t="inlineStr">
+        <is>
+          <t>08:07:42</t>
+        </is>
+      </c>
+      <c r="AG113" t="inlineStr">
+        <is>
+          <t>15:48:06</t>
+        </is>
+      </c>
+      <c r="AH113" t="inlineStr">
+        <is>
+          <t>08:11:55</t>
+        </is>
+      </c>
+      <c r="AI113" t="inlineStr">
+        <is>
+          <t>15:52:52</t>
+        </is>
+      </c>
+      <c r="AJ113" t="inlineStr">
+        <is>
+          <t>07:59:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>08:22:02</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>15:33:19</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>07:49:50</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>15:55:32</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>07:58:00</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>15:57:05</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>08:53:25</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>15:52:15</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>08:01:01</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>16:03:50</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>07:49:55</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>15:46:57</t>
+        </is>
+      </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>07:52:29</t>
+        </is>
+      </c>
+      <c r="Y114" t="inlineStr">
+        <is>
+          <t>15:53:22</t>
+        </is>
+      </c>
+      <c r="AB114" t="inlineStr">
+        <is>
+          <t>09:03:08</t>
+        </is>
+      </c>
+      <c r="AC114" t="inlineStr">
+        <is>
+          <t>14:59:47</t>
+        </is>
+      </c>
+      <c r="AF114" t="inlineStr">
+        <is>
+          <t>07:49:56</t>
+        </is>
+      </c>
+      <c r="AG114" t="inlineStr">
+        <is>
+          <t>15:50:12</t>
+        </is>
+      </c>
+      <c r="AH114" t="inlineStr">
+        <is>
+          <t>07:52:08</t>
+        </is>
+      </c>
+      <c r="AI114" t="inlineStr">
+        <is>
+          <t>15:41:08</t>
+        </is>
+      </c>
+      <c r="AJ114" t="inlineStr">
+        <is>
+          <t>07:59:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>08:01:31</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>07:50:04</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>08:16:03</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>15:46:48</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>07:51:19</t>
+        </is>
+      </c>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>15:54:55</t>
+        </is>
+      </c>
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>07:51:03</t>
+        </is>
+      </c>
+      <c r="AB115" t="inlineStr">
+        <is>
+          <t>07:53:30</t>
+        </is>
+      </c>
+      <c r="AC115" t="inlineStr">
+        <is>
+          <t>16:01:01</t>
+        </is>
+      </c>
+      <c r="AD115" t="inlineStr">
+        <is>
+          <t>07:45:20</t>
+        </is>
+      </c>
+      <c r="AE115" t="inlineStr">
+        <is>
+          <t>16:12:11</t>
+        </is>
+      </c>
+      <c r="AF115" t="inlineStr">
+        <is>
+          <t>07:44:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>07:11:23</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>15:53:42</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>07:09:46</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>15:48:38</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>07:57:35</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>15:58:51</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>07:58:38</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>15:51:21</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>07:58:29</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>15:59:23</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>07:56:04</t>
+        </is>
+      </c>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>15:54:19</t>
+        </is>
+      </c>
+      <c r="Z116" t="inlineStr">
+        <is>
+          <t>07:50:14</t>
+        </is>
+      </c>
+      <c r="AC116" t="inlineStr">
+        <is>
+          <t>15:51:04</t>
+        </is>
+      </c>
+      <c r="AD116" t="inlineStr">
+        <is>
+          <t>07:19:49</t>
+        </is>
+      </c>
+      <c r="AG116" t="inlineStr">
+        <is>
+          <t>15:50:45</t>
+        </is>
+      </c>
+      <c r="AH116" t="inlineStr">
+        <is>
+          <t>07:53:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>08:02:59</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>15:46:50</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>07:57:30</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>13:17:15</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>07:57:05</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>15:30:44</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>08:12:03</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>15:19:54</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>08:04:22</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>14:39:35</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>15:07:44</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>07:59:35</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>15:36:50</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>07:57:19</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>15:25:11</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>07:52:48</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>15:27:56</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>07:59:34</t>
+        </is>
+      </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>15:34:47</t>
+        </is>
+      </c>
+      <c r="AD117" t="inlineStr">
+        <is>
+          <t>07:55:20</t>
+        </is>
+      </c>
+      <c r="AE117" t="inlineStr">
+        <is>
+          <t>15:45:22</t>
+        </is>
+      </c>
+      <c r="AF117" t="inlineStr">
+        <is>
+          <t>08:00:28</t>
+        </is>
+      </c>
+      <c r="AG117" t="inlineStr">
+        <is>
+          <t>15:45:59</t>
+        </is>
+      </c>
+      <c r="AJ117" t="inlineStr">
+        <is>
+          <t>07:51:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>09:17:23</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>15:46:44</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>07:43:32</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>16:07:03</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>07:54:59</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>15:30:35</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>07:45:03</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>07:45:26</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>15:36:23</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>08:04:34</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>15:25:06</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>07:54:51</t>
+        </is>
+      </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>15:23:50</t>
+        </is>
+      </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>08:11:58</t>
+        </is>
+      </c>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>12:34:18</t>
+        </is>
+      </c>
+      <c r="AD118" t="inlineStr">
+        <is>
+          <t>08:02:32</t>
+        </is>
+      </c>
+      <c r="AE118" t="inlineStr">
+        <is>
+          <t>15:45:15</t>
+        </is>
+      </c>
+      <c r="AF118" t="inlineStr">
+        <is>
+          <t>07:57:15</t>
+        </is>
+      </c>
+      <c r="AG118" t="inlineStr">
+        <is>
+          <t>15:49:05</t>
+        </is>
+      </c>
+      <c r="AH118" t="inlineStr">
+        <is>
+          <t>08:06:06</t>
+        </is>
+      </c>
+      <c r="AI118" t="inlineStr">
+        <is>
+          <t>15:43:55</t>
+        </is>
+      </c>
+      <c r="AJ118" t="inlineStr">
+        <is>
+          <t>07:52:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>09:53:35</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>14:10:21</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>10:10:14</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>14:51:27</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>08:34:49</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>08:47:25</t>
+        </is>
+      </c>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>16:00:32</t>
+        </is>
+      </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>08:37:44</t>
+        </is>
+      </c>
+      <c r="Y119" t="inlineStr">
+        <is>
+          <t>15:56:28</t>
+        </is>
+      </c>
+      <c r="AD119" t="inlineStr">
+        <is>
+          <t>08:29:50</t>
+        </is>
+      </c>
+      <c r="AE119" t="inlineStr">
+        <is>
+          <t>16:16:40</t>
+        </is>
+      </c>
+      <c r="AF119" t="inlineStr">
+        <is>
+          <t>08:39:01</t>
+        </is>
+      </c>
+      <c r="AH119" t="inlineStr">
+        <is>
+          <t>08:53:40</t>
+        </is>
+      </c>
+      <c r="AJ119" t="inlineStr">
+        <is>
+          <t>08:34:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>09:08:27</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>15:51:44</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>08:11:21</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>16:08:42</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>08:11:47</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>15:35:56</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>08:08:15</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>09:55:14</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>15:28:12</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>08:22:04</t>
+        </is>
+      </c>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>15:28:17</t>
+        </is>
+      </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>08:09:59</t>
+        </is>
+      </c>
+      <c r="Y120" t="inlineStr">
+        <is>
+          <t>13:46:06</t>
+        </is>
+      </c>
+      <c r="AD120" t="inlineStr">
+        <is>
+          <t>09:55:43</t>
+        </is>
+      </c>
+      <c r="AE120" t="inlineStr">
+        <is>
+          <t>15:47:01</t>
+        </is>
+      </c>
+      <c r="AF120" t="inlineStr">
+        <is>
+          <t>08:02:19</t>
+        </is>
+      </c>
+      <c r="AG120" t="inlineStr">
+        <is>
+          <t>15:47:37</t>
+        </is>
+      </c>
+      <c r="AH120" t="inlineStr">
+        <is>
+          <t>08:12:07</t>
+        </is>
+      </c>
+      <c r="AI120" t="inlineStr">
+        <is>
+          <t>15:53:33</t>
+        </is>
+      </c>
+      <c r="AJ120" t="inlineStr">
+        <is>
+          <t>08:13:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>15:33:43</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>07:51:43</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>15:34:21</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>07:55:27</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>15:32:34</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>07:48:42</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>16:00:37</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>15:50:47</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>07:51:10</t>
+        </is>
+      </c>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>15:42:57</t>
+        </is>
+      </c>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>07:47:50</t>
+        </is>
+      </c>
+      <c r="AB121" t="inlineStr">
+        <is>
+          <t>07:09:51</t>
+        </is>
+      </c>
+      <c r="AE121" t="inlineStr">
+        <is>
+          <t>15:47:26</t>
+        </is>
+      </c>
+      <c r="AF121" t="inlineStr">
+        <is>
+          <t>07:50:40</t>
+        </is>
+      </c>
+      <c r="AI121" t="inlineStr">
+        <is>
+          <t>15:41:48</t>
+        </is>
+      </c>
+      <c r="AJ121" t="inlineStr">
+        <is>
+          <t>07:54:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>08:02:12</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>15:39:05</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>08:07:34</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>16:40:46</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>08:01:25</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>15:28:28</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>08:14:48</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>15:19:38</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>15:07:13</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>08:14:43</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>15:29:51</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>08:07:12</t>
+        </is>
+      </c>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>15:20:43</t>
+        </is>
+      </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>08:43:40</t>
+        </is>
+      </c>
+      <c r="Y122" t="inlineStr">
+        <is>
+          <t>15:12:46</t>
+        </is>
+      </c>
+      <c r="AD122" t="inlineStr">
+        <is>
+          <t>08:12:02</t>
+        </is>
+      </c>
+      <c r="AE122" t="inlineStr">
+        <is>
+          <t>15:31:20</t>
+        </is>
+      </c>
+      <c r="AH122" t="inlineStr">
+        <is>
+          <t>08:14:46</t>
+        </is>
+      </c>
+      <c r="AI122" t="inlineStr">
+        <is>
+          <t>15:35:25</t>
+        </is>
+      </c>
+      <c r="AJ122" t="inlineStr">
+        <is>
+          <t>08:14:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>07:13:31</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>15:39:28</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>07:10:30</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>15:35:12</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>08:13:19</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>16:06:48</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>08:02:52</t>
+        </is>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>15:27:24</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>07:58:52</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>15:30:47</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>07:54:05</t>
+        </is>
+      </c>
+      <c r="Y123" t="inlineStr">
+        <is>
+          <t>15:47:55</t>
+        </is>
+      </c>
+      <c r="Z123" t="inlineStr">
+        <is>
+          <t>07:41:33</t>
+        </is>
+      </c>
+      <c r="AC123" t="inlineStr">
+        <is>
+          <t>15:52:04</t>
+        </is>
+      </c>
+      <c r="AD123" t="inlineStr">
+        <is>
+          <t>07:15:12</t>
+        </is>
+      </c>
+      <c r="AG123" t="inlineStr">
+        <is>
+          <t>15:36:50</t>
+        </is>
+      </c>
+      <c r="AH123" t="inlineStr">
+        <is>
+          <t>07:57:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>08:28:07</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>15:22:30</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>08:40:22</t>
+        </is>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>08:35:05</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>15:12:52</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>08:44:14</t>
+        </is>
+      </c>
+      <c r="W124" t="inlineStr">
+        <is>
+          <t>15:29:55</t>
+        </is>
+      </c>
+      <c r="X124" t="inlineStr">
+        <is>
+          <t>08:55:55</t>
+        </is>
+      </c>
+      <c r="Y124" t="inlineStr">
+        <is>
+          <t>15:37:39</t>
+        </is>
+      </c>
+      <c r="AD124" t="inlineStr">
+        <is>
+          <t>08:35:52</t>
+        </is>
+      </c>
+      <c r="AE124" t="inlineStr">
+        <is>
+          <t>15:35:06</t>
+        </is>
+      </c>
+      <c r="AF124" t="inlineStr">
+        <is>
+          <t>08:33:18</t>
+        </is>
+      </c>
+      <c r="AG124" t="inlineStr">
+        <is>
+          <t>15:49:53</t>
+        </is>
+      </c>
+      <c r="AH124" t="inlineStr">
+        <is>
+          <t>08:26:34</t>
+        </is>
+      </c>
+      <c r="AJ124" t="inlineStr">
+        <is>
+          <t>08:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>09:04:44</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>15:16:51</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>08:59:32</t>
+        </is>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>08:29:23</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>08:20:00</t>
+        </is>
+      </c>
+      <c r="AD125" t="inlineStr">
+        <is>
+          <t>09:21:34</t>
+        </is>
+      </c>
+      <c r="AF125" t="inlineStr">
+        <is>
+          <t>09:11:37</t>
+        </is>
+      </c>
+      <c r="AH125" t="inlineStr">
+        <is>
+          <t>09:18:56</t>
+        </is>
+      </c>
+      <c r="AJ125" t="inlineStr">
+        <is>
+          <t>09:19:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>09:05:16</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>15:16:06</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>08:30:59</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>08:28:03</t>
+        </is>
+      </c>
+      <c r="X126" t="inlineStr">
+        <is>
+          <t>08:18:31</t>
+        </is>
+      </c>
+      <c r="AD126" t="inlineStr">
+        <is>
+          <t>09:24:24</t>
+        </is>
+      </c>
+      <c r="AH126" t="inlineStr">
+        <is>
+          <t>09:19:46</t>
+        </is>
+      </c>
+      <c r="AJ126" t="inlineStr">
+        <is>
+          <t>09:15:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>08:33:02</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>15:34:48</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>08:31:43</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>16:27:03</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>09:25:19</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>15:19:10</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>15:06:39</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>08:44:47</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>14:58:35</t>
+        </is>
+      </c>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>08:39:33</t>
+        </is>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>15:24:45</t>
+        </is>
+      </c>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>08:41:24</t>
+        </is>
+      </c>
+      <c r="Y127" t="inlineStr">
+        <is>
+          <t>15:34:56</t>
+        </is>
+      </c>
+      <c r="AD127" t="inlineStr">
+        <is>
+          <t>09:00:02</t>
+        </is>
+      </c>
+      <c r="AE127" t="inlineStr">
+        <is>
+          <t>15:28:14</t>
+        </is>
+      </c>
+      <c r="AF127" t="inlineStr">
+        <is>
+          <t>09:06:43</t>
+        </is>
+      </c>
+      <c r="AG127" t="inlineStr">
+        <is>
+          <t>15:36:13</t>
+        </is>
+      </c>
+      <c r="AH127" t="inlineStr">
+        <is>
+          <t>09:05:41</t>
+        </is>
+      </c>
+      <c r="AI127" t="inlineStr">
+        <is>
+          <t>15:33:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>08:46:23</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>15:35:07</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>08:31:18</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>16:27:52</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>09:33:30</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>15:19:12</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>15:06:31</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>09:41:43</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>15:29:58</t>
+        </is>
+      </c>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>08:59:54</t>
+        </is>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>15:41:15</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>08:08:07</t>
+        </is>
+      </c>
+      <c r="W128" t="inlineStr">
+        <is>
+          <t>15:25:52</t>
+        </is>
+      </c>
+      <c r="X128" t="inlineStr">
+        <is>
+          <t>08:41:14</t>
+        </is>
+      </c>
+      <c r="Y128" t="inlineStr">
+        <is>
+          <t>15:18:25</t>
+        </is>
+      </c>
+      <c r="AD128" t="inlineStr">
+        <is>
+          <t>09:04:53</t>
+        </is>
+      </c>
+      <c r="AE128" t="inlineStr">
+        <is>
+          <t>13:36:30</t>
+        </is>
+      </c>
+      <c r="AH128" t="inlineStr">
+        <is>
+          <t>09:38:41</t>
+        </is>
+      </c>
+      <c r="AI128" t="inlineStr">
+        <is>
+          <t>12:25:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>08:39:42</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>15:37:48</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>08:16:39</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>16:44:43</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>08:47:25</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>15:30:38</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>10:41:23</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>15:06:45</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>08:58:50</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>14:59:15</t>
+        </is>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>15:24:53</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>08:52:53</t>
+        </is>
+      </c>
+      <c r="W129" t="inlineStr">
+        <is>
+          <t>15:26:27</t>
+        </is>
+      </c>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>08:27:37</t>
+        </is>
+      </c>
+      <c r="Y129" t="inlineStr">
+        <is>
+          <t>15:34:34</t>
+        </is>
+      </c>
+      <c r="AD129" t="inlineStr">
+        <is>
+          <t>09:10:26</t>
+        </is>
+      </c>
+      <c r="AE129" t="inlineStr">
+        <is>
+          <t>15:28:28</t>
+        </is>
+      </c>
+      <c r="AF129" t="inlineStr">
+        <is>
+          <t>08:48:55</t>
+        </is>
+      </c>
+      <c r="AG129" t="inlineStr">
+        <is>
+          <t>15:35:55</t>
+        </is>
+      </c>
+      <c r="AJ129" t="inlineStr">
+        <is>
+          <t>08:07:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>08:02:46</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>15:46:06</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>08:09:28</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>16:39:17</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>08:01:34</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>15:29:41</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>08:14:01</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>15:24:15</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>08:15:06</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>15:29:20</t>
+        </is>
+      </c>
+      <c r="AD130" t="inlineStr">
+        <is>
+          <t>08:12:15</t>
+        </is>
+      </c>
+      <c r="AE130" t="inlineStr">
+        <is>
+          <t>15:28:39</t>
+        </is>
+      </c>
+      <c r="AF130" t="inlineStr">
+        <is>
+          <t>08:07:50</t>
+        </is>
+      </c>
+      <c r="AG130" t="inlineStr">
+        <is>
+          <t>15:36:01</t>
+        </is>
+      </c>
+      <c r="AH130" t="inlineStr">
+        <is>
+          <t>08:14:20</t>
+        </is>
+      </c>
+      <c r="AI130" t="inlineStr">
+        <is>
+          <t>15:33:29</t>
+        </is>
+      </c>
+      <c r="AJ130" t="inlineStr">
+        <is>
+          <t>08:14:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>09:05:27</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>15:17:51</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>08:58:36</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>09:01:08</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>08:55:37</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>08:19:50</t>
+        </is>
+      </c>
+      <c r="W131" t="inlineStr">
+        <is>
+          <t>15:42:54</t>
+        </is>
+      </c>
+      <c r="X131" t="inlineStr">
+        <is>
+          <t>08:08:38</t>
+        </is>
+      </c>
+      <c r="Y131" t="inlineStr">
+        <is>
+          <t>15:55:35</t>
+        </is>
+      </c>
+      <c r="AD131" t="inlineStr">
+        <is>
+          <t>09:12:35</t>
+        </is>
+      </c>
+      <c r="AE131" t="inlineStr">
+        <is>
+          <t>15:42:10</t>
+        </is>
+      </c>
+      <c r="AF131" t="inlineStr">
+        <is>
+          <t>09:26:35</t>
+        </is>
+      </c>
+      <c r="AJ131" t="inlineStr">
+        <is>
+          <t>09:08:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>15:32:56</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>07:45:37</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>15:36:15</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>07:46:23</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>15:32:17</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>07:48:07</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>16:07:06</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>15:50:32</t>
+        </is>
+      </c>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>07:53:46</t>
+        </is>
+      </c>
+      <c r="W132" t="inlineStr">
+        <is>
+          <t>15:42:50</t>
+        </is>
+      </c>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>07:46:33</t>
+        </is>
+      </c>
+      <c r="AA132" t="inlineStr">
+        <is>
+          <t>15:51:19</t>
+        </is>
+      </c>
+      <c r="AB132" t="inlineStr">
+        <is>
+          <t>07:10:12</t>
+        </is>
+      </c>
+      <c r="AE132" t="inlineStr">
+        <is>
+          <t>15:47:34</t>
+        </is>
+      </c>
+      <c r="AF132" t="inlineStr">
+        <is>
+          <t>07:47:39</t>
+        </is>
+      </c>
+      <c r="AI132" t="inlineStr">
+        <is>
+          <t>15:42:03</t>
+        </is>
+      </c>
+      <c r="AJ132" t="inlineStr">
+        <is>
+          <t>07:51:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>08:17:27</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>15:46:35</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>08:10:51</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>16:05:19</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>08:14:08</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>15:30:17</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>08:12:40</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>15:33:57</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>15:11:22</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>08:39:44</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>15:36:28</t>
+        </is>
+      </c>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>08:21:55</t>
+        </is>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>15:24:30</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>08:12:37</t>
+        </is>
+      </c>
+      <c r="W133" t="inlineStr">
+        <is>
+          <t>15:23:30</t>
+        </is>
+      </c>
+      <c r="Z133" t="inlineStr">
+        <is>
+          <t>08:17:30</t>
+        </is>
+      </c>
+      <c r="AA133" t="inlineStr">
+        <is>
+          <t>14:52:16</t>
+        </is>
+      </c>
+      <c r="AD133" t="inlineStr">
+        <is>
+          <t>08:17:46</t>
+        </is>
+      </c>
+      <c r="AE133" t="inlineStr">
+        <is>
+          <t>15:43:46</t>
+        </is>
+      </c>
+      <c r="AF133" t="inlineStr">
+        <is>
+          <t>08:18:51</t>
+        </is>
+      </c>
+      <c r="AG133" t="inlineStr">
+        <is>
+          <t>13:30:55</t>
+        </is>
+      </c>
+      <c r="AH133" t="inlineStr">
+        <is>
+          <t>08:18:10</t>
+        </is>
+      </c>
+      <c r="AI133" t="inlineStr">
+        <is>
+          <t>15:43:21</t>
+        </is>
+      </c>
+      <c r="AJ133" t="inlineStr">
+        <is>
+          <t>08:05:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>08:28:17</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>08:40:16</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>08:40:30</t>
+        </is>
+      </c>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>08:34:55</t>
+        </is>
+      </c>
+      <c r="AD134" t="inlineStr">
+        <is>
+          <t>08:34:54</t>
+        </is>
+      </c>
+      <c r="AE134" t="inlineStr">
+        <is>
+          <t>16:00:36</t>
+        </is>
+      </c>
+      <c r="AF134" t="inlineStr">
+        <is>
+          <t>08:33:09</t>
+        </is>
+      </c>
+      <c r="AH134" t="inlineStr">
+        <is>
+          <t>08:26:25</t>
+        </is>
+      </c>
+      <c r="AJ134" t="inlineStr">
+        <is>
+          <t>08:23:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>09:05:55</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>15:47:14</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>09:24:17</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>16:28:49</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>09:12:49</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>09:59:44</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>15:28:43</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>10:36:04</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>14:40:13</t>
+        </is>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>15:08:52</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>09:07:43</t>
+        </is>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>15:35:08</t>
+        </is>
+      </c>
+      <c r="T135" t="inlineStr">
+        <is>
+          <t>08:53:06</t>
+        </is>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>15:30:17</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>09:11:20</t>
+        </is>
+      </c>
+      <c r="W135" t="inlineStr">
+        <is>
+          <t>15:37:53</t>
+        </is>
+      </c>
+      <c r="AD135" t="inlineStr">
+        <is>
+          <t>09:28:29</t>
+        </is>
+      </c>
+      <c r="AE135" t="inlineStr">
+        <is>
+          <t>16:11:54</t>
+        </is>
+      </c>
+      <c r="AF135" t="inlineStr">
+        <is>
+          <t>08:55:26</t>
+        </is>
+      </c>
+      <c r="AG135" t="inlineStr">
+        <is>
+          <t>16:07:55</t>
+        </is>
+      </c>
+      <c r="AH135" t="inlineStr">
+        <is>
+          <t>09:04:16</t>
+        </is>
+      </c>
+      <c r="AI135" t="inlineStr">
+        <is>
+          <t>15:42:44</t>
+        </is>
+      </c>
+      <c r="AJ135" t="inlineStr">
+        <is>
+          <t>08:43:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>08:08:20</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>15:26:11</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>08:02:58</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>16:01:20</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>08:00:27</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>16:05:40</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>08:17:27</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>16:00:23</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>08:09:24</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>10:35:21</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>16:04:26</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>08:37:24</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>15:59:26</t>
+        </is>
+      </c>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>08:20:42</t>
+        </is>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>16:02:38</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>08:15:25</t>
+        </is>
+      </c>
+      <c r="W136" t="inlineStr">
+        <is>
+          <t>16:04:01</t>
+        </is>
+      </c>
+      <c r="X136" t="inlineStr">
+        <is>
+          <t>08:15:52</t>
+        </is>
+      </c>
+      <c r="AD136" t="inlineStr">
+        <is>
+          <t>08:30:11</t>
+        </is>
+      </c>
+      <c r="AE136" t="inlineStr">
+        <is>
+          <t>15:54:02</t>
+        </is>
+      </c>
+      <c r="AF136" t="inlineStr">
+        <is>
+          <t>08:18:58</t>
+        </is>
+      </c>
+      <c r="AH136" t="inlineStr">
+        <is>
+          <t>08:39:24</t>
+        </is>
+      </c>
+      <c r="AI136" t="inlineStr">
+        <is>
+          <t>16:30:35</t>
+        </is>
+      </c>
+      <c r="AJ136" t="inlineStr">
+        <is>
+          <t>08:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>08:37:22</t>
+        </is>
+      </c>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>08:19:18</t>
+        </is>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>15:35:31</t>
+        </is>
+      </c>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>08:22:43</t>
+        </is>
+      </c>
+      <c r="AD137" t="inlineStr">
+        <is>
+          <t>08:27:57</t>
+        </is>
+      </c>
+      <c r="AE137" t="inlineStr">
+        <is>
+          <t>15:52:09</t>
+        </is>
+      </c>
+      <c r="AF137" t="inlineStr">
+        <is>
+          <t>08:09:42</t>
+        </is>
+      </c>
+      <c r="AG137" t="inlineStr">
+        <is>
+          <t>15:43:43</t>
+        </is>
+      </c>
+      <c r="AH137" t="inlineStr">
+        <is>
+          <t>08:32:53</t>
+        </is>
+      </c>
+      <c r="AI137" t="inlineStr">
+        <is>
+          <t>15:58:35</t>
+        </is>
+      </c>
+      <c r="AJ137" t="inlineStr">
+        <is>
+          <t>08:21:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>08:16:37</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>15:34:23</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>08:20:24</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>15:12:04</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>08:13:40</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>14:51:43</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>08:20:28</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>14:07:58</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>10:03:25</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>13:37:35</t>
+        </is>
+      </c>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>08:23:43</t>
+        </is>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>15:59:37</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>08:12:31</t>
+        </is>
+      </c>
+      <c r="W138" t="inlineStr">
+        <is>
+          <t>15:58:07</t>
+        </is>
+      </c>
+      <c r="X138" t="inlineStr">
+        <is>
+          <t>08:20:09</t>
+        </is>
+      </c>
+      <c r="Y138" t="inlineStr">
+        <is>
+          <t>15:39:47</t>
+        </is>
+      </c>
+      <c r="AD138" t="inlineStr">
+        <is>
+          <t>08:17:30</t>
+        </is>
+      </c>
+      <c r="AE138" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="AF138" t="inlineStr">
+        <is>
+          <t>08:07:32</t>
+        </is>
+      </c>
+      <c r="AG138" t="inlineStr">
+        <is>
+          <t>15:48:01</t>
+        </is>
+      </c>
+      <c r="AH138" t="inlineStr">
+        <is>
+          <t>08:11:52</t>
+        </is>
+      </c>
+      <c r="AI138" t="inlineStr">
+        <is>
+          <t>15:52:48</t>
+        </is>
+      </c>
+      <c r="AJ138" t="inlineStr">
+        <is>
+          <t>07:59:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>08:16:46</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>15:34:39</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>08:20:21</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>15:12:08</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>08:14:08</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>14:51:49</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>10:03:14</t>
+        </is>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>13:37:39</t>
+        </is>
+      </c>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>08:23:46</t>
+        </is>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>15:59:13</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>08:12:39</t>
+        </is>
+      </c>
+      <c r="W139" t="inlineStr">
+        <is>
+          <t>16:00:19</t>
+        </is>
+      </c>
+      <c r="X139" t="inlineStr">
+        <is>
+          <t>08:20:13</t>
+        </is>
+      </c>
+      <c r="Y139" t="inlineStr">
+        <is>
+          <t>15:39:52</t>
+        </is>
+      </c>
+      <c r="AD139" t="inlineStr">
+        <is>
+          <t>08:17:35</t>
+        </is>
+      </c>
+      <c r="AE139" t="inlineStr">
+        <is>
+          <t>15:59:57</t>
+        </is>
+      </c>
+      <c r="AF139" t="inlineStr">
+        <is>
+          <t>08:08:04</t>
+        </is>
+      </c>
+      <c r="AG139" t="inlineStr">
+        <is>
+          <t>15:49:58</t>
+        </is>
+      </c>
+      <c r="AH139" t="inlineStr">
+        <is>
+          <t>08:12:14</t>
+        </is>
+      </c>
+      <c r="AI139" t="inlineStr">
+        <is>
+          <t>15:53:21</t>
+        </is>
+      </c>
+      <c r="AJ139" t="inlineStr">
+        <is>
+          <t>07:59:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>09:24:33</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>12:18:07</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>09:11:07</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>12:43:32</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>10:03:33</t>
+        </is>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>12:24:14</t>
+        </is>
+      </c>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>09:22:57</t>
+        </is>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>15:16:54</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>09:11:13</t>
+        </is>
+      </c>
+      <c r="W140" t="inlineStr">
+        <is>
+          <t>15:26:56</t>
+        </is>
+      </c>
+      <c r="X140" t="inlineStr">
+        <is>
+          <t>08:41:18</t>
+        </is>
+      </c>
+      <c r="Y140" t="inlineStr">
+        <is>
+          <t>15:00:03</t>
+        </is>
+      </c>
+      <c r="AD140" t="inlineStr">
+        <is>
+          <t>09:16:14</t>
+        </is>
+      </c>
+      <c r="AE140" t="inlineStr">
+        <is>
+          <t>15:17:33</t>
+        </is>
+      </c>
+      <c r="AF140" t="inlineStr">
+        <is>
+          <t>08:46:22</t>
+        </is>
+      </c>
+      <c r="AG140" t="inlineStr">
+        <is>
+          <t>15:28:03</t>
+        </is>
+      </c>
+      <c r="AH140" t="inlineStr">
+        <is>
+          <t>09:03:53</t>
+        </is>
+      </c>
+      <c r="AI140" t="inlineStr">
+        <is>
+          <t>15:27:56</t>
+        </is>
+      </c>
+      <c r="AJ140" t="inlineStr">
+        <is>
+          <t>08:52:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>08:04:07</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>13:17:47</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>11:04:54</t>
+        </is>
+      </c>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>08:26:26</t>
+        </is>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>15:44:11</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>08:20:34</t>
+        </is>
+      </c>
+      <c r="W141" t="inlineStr">
+        <is>
+          <t>15:30:23</t>
+        </is>
+      </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>08:16:51</t>
+        </is>
+      </c>
+      <c r="Y141" t="inlineStr">
+        <is>
+          <t>14:51:14</t>
+        </is>
+      </c>
+      <c r="AD141" t="inlineStr">
+        <is>
+          <t>08:02:29</t>
+        </is>
+      </c>
+      <c r="AE141" t="inlineStr">
+        <is>
+          <t>15:55:20</t>
+        </is>
+      </c>
+      <c r="AF141" t="inlineStr">
+        <is>
+          <t>08:06:39</t>
+        </is>
+      </c>
+      <c r="AG141" t="inlineStr">
+        <is>
+          <t>15:40:01</t>
+        </is>
+      </c>
+      <c r="AH141" t="inlineStr">
+        <is>
+          <t>08:06:17</t>
+        </is>
+      </c>
+      <c r="AI141" t="inlineStr">
+        <is>
+          <t>15:29:48</t>
+        </is>
+      </c>
+      <c r="AJ141" t="inlineStr">
+        <is>
+          <t>07:52:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>09:29:52</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>13:11:10</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>10:04:23</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>12:24:28</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>08:33:22</t>
+        </is>
+      </c>
+      <c r="W142" t="inlineStr">
+        <is>
+          <t>15:31:47</t>
+        </is>
+      </c>
+      <c r="X142" t="inlineStr">
+        <is>
+          <t>08:40:52</t>
+        </is>
+      </c>
+      <c r="Y142" t="inlineStr">
+        <is>
+          <t>14:51:02</t>
+        </is>
+      </c>
+      <c r="AD142" t="inlineStr">
+        <is>
+          <t>08:42:41</t>
+        </is>
+      </c>
+      <c r="AE142" t="inlineStr">
+        <is>
+          <t>12:52:42</t>
+        </is>
+      </c>
+      <c r="AH142" t="inlineStr">
+        <is>
+          <t>08:43:36</t>
+        </is>
+      </c>
+      <c r="AI142" t="inlineStr">
+        <is>
+          <t>15:34:07</t>
+        </is>
+      </c>
+      <c r="AJ142" t="inlineStr">
+        <is>
+          <t>08:41:00</t>
+        </is>
+      </c>
+      <c r="AK142" t="inlineStr">
+        <is>
+          <t>14:27:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>09:29:57</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>13:36:55</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>09:47:38</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>12:33:26</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>09:45:32</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>12:43:43</t>
+        </is>
+      </c>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>08:50:37</t>
+        </is>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>15:16:43</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>08:33:24</t>
+        </is>
+      </c>
+      <c r="W143" t="inlineStr">
+        <is>
+          <t>15:31:51</t>
+        </is>
+      </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>08:41:01</t>
+        </is>
+      </c>
+      <c r="Y143" t="inlineStr">
+        <is>
+          <t>14:52:25</t>
+        </is>
+      </c>
+      <c r="AD143" t="inlineStr">
+        <is>
+          <t>08:42:44</t>
+        </is>
+      </c>
+      <c r="AE143" t="inlineStr">
+        <is>
+          <t>15:56:50</t>
+        </is>
+      </c>
+      <c r="AF143" t="inlineStr">
+        <is>
+          <t>08:37:25</t>
+        </is>
+      </c>
+      <c r="AG143" t="inlineStr">
+        <is>
+          <t>15:22:07</t>
+        </is>
+      </c>
+      <c r="AH143" t="inlineStr">
+        <is>
+          <t>08:43:42</t>
+        </is>
+      </c>
+      <c r="AI143" t="inlineStr">
+        <is>
+          <t>15:34:04</t>
+        </is>
+      </c>
+      <c r="AJ143" t="inlineStr">
+        <is>
+          <t>08:41:02</t>
+        </is>
+      </c>
+      <c r="AK143" t="inlineStr">
+        <is>
+          <t>14:26:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>08:19:09</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>15:36:30</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>07:51:15</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>15:16:35</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>08:19:14</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>15:05:34</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>10:03:43</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>14:10:54</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>07:55:39</t>
+        </is>
+      </c>
+      <c r="W144" t="inlineStr">
+        <is>
+          <t>15:56:32</t>
+        </is>
+      </c>
+      <c r="X144" t="inlineStr">
+        <is>
+          <t>08:12:44</t>
+        </is>
+      </c>
+      <c r="AD144" t="inlineStr">
+        <is>
+          <t>07:45:03</t>
+        </is>
+      </c>
+      <c r="AE144" t="inlineStr">
+        <is>
+          <t>15:58:11</t>
+        </is>
+      </c>
+      <c r="AF144" t="inlineStr">
+        <is>
+          <t>07:45:54</t>
+        </is>
+      </c>
+      <c r="AG144" t="inlineStr">
+        <is>
+          <t>16:08:24</t>
+        </is>
+      </c>
+      <c r="AH144" t="inlineStr">
+        <is>
+          <t>07:30:35</t>
+        </is>
+      </c>
+      <c r="AI144" t="inlineStr">
+        <is>
+          <t>15:59:04</t>
+        </is>
+      </c>
+      <c r="AJ144" t="inlineStr">
+        <is>
+          <t>07:34:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>08:12:02</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>15:52:42</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>08:06:49</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>15:45:23</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>08:08:16</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>15:56:14</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>08:41:06</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>13:45:00</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>14:15:31</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>08:18:30</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>15:36:36</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>08:23:05</t>
+        </is>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>15:47:33</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>08:09:04</t>
+        </is>
+      </c>
+      <c r="W145" t="inlineStr">
+        <is>
+          <t>15:13:44</t>
+        </is>
+      </c>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>08:10:43</t>
+        </is>
+      </c>
+      <c r="Y145" t="inlineStr">
+        <is>
+          <t>16:22:39</t>
+        </is>
+      </c>
+      <c r="AD145" t="inlineStr">
+        <is>
+          <t>08:27:02</t>
+        </is>
+      </c>
+      <c r="AE145" t="inlineStr">
+        <is>
+          <t>16:25:02</t>
+        </is>
+      </c>
+      <c r="AF145" t="inlineStr">
+        <is>
+          <t>08:05:58</t>
+        </is>
+      </c>
+      <c r="AG145" t="inlineStr">
+        <is>
+          <t>16:37:16</t>
+        </is>
+      </c>
+      <c r="AH145" t="inlineStr">
+        <is>
+          <t>08:06:22</t>
+        </is>
+      </c>
+      <c r="AI145" t="inlineStr">
+        <is>
+          <t>14:43:47</t>
+        </is>
+      </c>
+      <c r="AJ145" t="inlineStr">
+        <is>
+          <t>08:04:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>08:34:24</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>14:56:38</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>08:37:24</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>13:35:12</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>10:03:57</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>14:10:29</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>08:38:59</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>08:40:20</t>
+        </is>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>15:45:12</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>08:15:33</t>
+        </is>
+      </c>
+      <c r="W146" t="inlineStr">
+        <is>
+          <t>15:42:23</t>
+        </is>
+      </c>
+      <c r="X146" t="inlineStr">
+        <is>
+          <t>08:21:38</t>
+        </is>
+      </c>
+      <c r="AD146" t="inlineStr">
+        <is>
+          <t>08:26:50</t>
+        </is>
+      </c>
+      <c r="AE146" t="inlineStr">
+        <is>
+          <t>15:56:11</t>
+        </is>
+      </c>
+      <c r="AF146" t="inlineStr">
+        <is>
+          <t>08:28:46</t>
+        </is>
+      </c>
+      <c r="AG146" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="AH146" t="inlineStr">
+        <is>
+          <t>08:34:27</t>
+        </is>
+      </c>
+      <c r="AI146" t="inlineStr">
+        <is>
+          <t>15:48:21</t>
+        </is>
+      </c>
+      <c r="AJ146" t="inlineStr">
+        <is>
+          <t>08:12:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>09:09:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>15:16:41</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>08:42:48</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>14:55:36</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>09:07:24</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>14:03:30</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>09:06:43</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>14:27:19</t>
+        </is>
+      </c>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>08:30:02</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>08:28:40</t>
+        </is>
+      </c>
+      <c r="X148" t="inlineStr">
+        <is>
+          <t>08:18:52</t>
+        </is>
+      </c>
+      <c r="AD148" t="inlineStr">
+        <is>
+          <t>09:25:04</t>
+        </is>
+      </c>
+      <c r="AF148" t="inlineStr">
+        <is>
+          <t>09:28:11</t>
+        </is>
+      </c>
+      <c r="AH148" t="inlineStr">
+        <is>
+          <t>09:20:02</t>
+        </is>
+      </c>
+      <c r="AJ148" t="inlineStr">
+        <is>
+          <t>09:15:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>09:05:40</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>09:24:19</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>12:06:42</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>10:06:28</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>13:37:08</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>10:31:51</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>16:01:56</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>09:32:29</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>15:51:27</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>09:22:58</t>
+        </is>
+      </c>
+      <c r="W149" t="inlineStr">
+        <is>
+          <t>15:40:24</t>
+        </is>
+      </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>08:44:12</t>
+        </is>
+      </c>
+      <c r="Y149" t="inlineStr">
+        <is>
+          <t>14:59:30</t>
+        </is>
+      </c>
+      <c r="AD149" t="inlineStr">
+        <is>
+          <t>09:07:50</t>
+        </is>
+      </c>
+      <c r="AE149" t="inlineStr">
+        <is>
+          <t>15:32:32</t>
+        </is>
+      </c>
+      <c r="AF149" t="inlineStr">
+        <is>
+          <t>09:07:42</t>
+        </is>
+      </c>
+      <c r="AG149" t="inlineStr">
+        <is>
+          <t>16:04:33</t>
+        </is>
+      </c>
+      <c r="AH149" t="inlineStr">
+        <is>
+          <t>09:20:13</t>
+        </is>
+      </c>
+      <c r="AI149" t="inlineStr">
+        <is>
+          <t>15:22:16</t>
+        </is>
+      </c>
+      <c r="AJ149" t="inlineStr">
+        <is>
+          <t>09:07:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>09:05:47</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>13:18:24</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>10:06:23</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>13:39:10</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>10:02:02</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>13:51:37</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>09:36:26</t>
+        </is>
+      </c>
+      <c r="W150" t="inlineStr">
+        <is>
+          <t>15:28:54</t>
+        </is>
+      </c>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>09:23:15</t>
+        </is>
+      </c>
+      <c r="Y150" t="inlineStr">
+        <is>
+          <t>12:50:59</t>
+        </is>
+      </c>
+      <c r="AD150" t="inlineStr">
+        <is>
+          <t>09:30:34</t>
+        </is>
+      </c>
+      <c r="AE150" t="inlineStr">
+        <is>
+          <t>15:17:44</t>
+        </is>
+      </c>
+      <c r="AF150" t="inlineStr">
+        <is>
+          <t>09:24:16</t>
+        </is>
+      </c>
+      <c r="AG150" t="inlineStr">
+        <is>
+          <t>15:35:40</t>
+        </is>
+      </c>
+      <c r="AH150" t="inlineStr">
+        <is>
+          <t>08:56:24</t>
+        </is>
+      </c>
+      <c r="AI150" t="inlineStr">
+        <is>
+          <t>15:38:43</t>
+        </is>
+      </c>
+      <c r="AJ150" t="inlineStr">
+        <is>
+          <t>09:07:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>09:08:07</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>13:18:34</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>08:06:22</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>15:34:59</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>09:24:29</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>14:33:59</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>08:12:54</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>15:00:31</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>08:11:32</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>14:04:25</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>15:52:11</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>08:03:14</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>15:11:25</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>08:03:37</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>15:21:10</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>07:54:40</t>
+        </is>
+      </c>
+      <c r="W151" t="inlineStr">
+        <is>
+          <t>14:54:03</t>
+        </is>
+      </c>
+      <c r="AD151" t="inlineStr">
+        <is>
+          <t>08:10:00</t>
+        </is>
+      </c>
+      <c r="AE151" t="inlineStr">
+        <is>
+          <t>15:01:46</t>
+        </is>
+      </c>
+      <c r="AF151" t="inlineStr">
+        <is>
+          <t>08:06:45</t>
+        </is>
+      </c>
+      <c r="AG151" t="inlineStr">
+        <is>
+          <t>15:07:35</t>
+        </is>
+      </c>
+      <c r="AH151" t="inlineStr">
+        <is>
+          <t>08:08:37</t>
+        </is>
+      </c>
+      <c r="AI151" t="inlineStr">
+        <is>
+          <t>15:09:34</t>
+        </is>
+      </c>
+      <c r="AJ151" t="inlineStr">
+        <is>
+          <t>08:07:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>09:18:37</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>15:47:20</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>09:41:35</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>11:03:20</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>13:00:07</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>14:35:58</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>10:19:06</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>15:35:35</t>
+        </is>
+      </c>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>09:23:26</t>
+        </is>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>15:30:12</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>09:11:09</t>
+        </is>
+      </c>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>09:07:29</t>
+        </is>
+      </c>
+      <c r="Y152" t="inlineStr">
+        <is>
+          <t>16:25:36</t>
+        </is>
+      </c>
+      <c r="AD152" t="inlineStr">
+        <is>
+          <t>09:28:50</t>
+        </is>
+      </c>
+      <c r="AE152" t="inlineStr">
+        <is>
+          <t>16:39:54</t>
+        </is>
+      </c>
+      <c r="AH152" t="inlineStr">
+        <is>
+          <t>09:40:15</t>
+        </is>
+      </c>
+      <c r="AI152" t="inlineStr">
+        <is>
+          <t>15:25:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>06:55:24</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>13:29:34</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>11:44:28</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>06:51:14</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>13:58:03</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>11:58:28</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>07:05:12</t>
+        </is>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>13:57:26</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>06:53:49</t>
+        </is>
+      </c>
+      <c r="W153" t="inlineStr">
+        <is>
+          <t>13:55:14</t>
+        </is>
+      </c>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>06:47:39</t>
+        </is>
+      </c>
+      <c r="Y153" t="inlineStr">
+        <is>
+          <t>13:53:55</t>
+        </is>
+      </c>
+      <c r="AD153" t="inlineStr">
+        <is>
+          <t>07:03:03</t>
+        </is>
+      </c>
+      <c r="AE153" t="inlineStr">
+        <is>
+          <t>14:08:33</t>
+        </is>
+      </c>
+      <c r="AF153" t="inlineStr">
+        <is>
+          <t>06:53:11</t>
+        </is>
+      </c>
+      <c r="AG153" t="inlineStr">
+        <is>
+          <t>13:57:54</t>
+        </is>
+      </c>
+      <c r="AH153" t="inlineStr">
+        <is>
+          <t>06:55:40</t>
+        </is>
+      </c>
+      <c r="AI153" t="inlineStr">
+        <is>
+          <t>14:09:28</t>
+        </is>
+      </c>
+      <c r="AJ153" t="inlineStr">
+        <is>
+          <t>06:51:36</t>
+        </is>
+      </c>
+      <c r="AK153" t="inlineStr">
+        <is>
+          <t>14:06:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>07:50:22</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>12:20:03</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>07:49:16</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>14:49:29</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>11:53:37</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>07:45:54</t>
+        </is>
+      </c>
+      <c r="W154" t="inlineStr">
+        <is>
+          <t>15:13:26</t>
+        </is>
+      </c>
+      <c r="X154" t="inlineStr">
+        <is>
+          <t>07:46:01</t>
+        </is>
+      </c>
+      <c r="Y154" t="inlineStr">
+        <is>
+          <t>14:54:44</t>
+        </is>
+      </c>
+      <c r="AD154" t="inlineStr">
+        <is>
+          <t>07:49:56</t>
+        </is>
+      </c>
+      <c r="AE154" t="inlineStr">
+        <is>
+          <t>15:53:00</t>
+        </is>
+      </c>
+      <c r="AH154" t="inlineStr">
+        <is>
+          <t>07:50:00</t>
+        </is>
+      </c>
+      <c r="AI154" t="inlineStr">
+        <is>
+          <t>15:48:25</t>
+        </is>
+      </c>
+      <c r="AJ154" t="inlineStr">
+        <is>
+          <t>07:47:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>09:56:34</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>13:58:57</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>08:04:25</t>
+        </is>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>15:21:18</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>08:03:29</t>
+        </is>
+      </c>
+      <c r="W155" t="inlineStr">
+        <is>
+          <t>15:33:03</t>
+        </is>
+      </c>
+      <c r="X155" t="inlineStr">
+        <is>
+          <t>08:10:53</t>
+        </is>
+      </c>
+      <c r="Y155" t="inlineStr">
+        <is>
+          <t>14:52:05</t>
+        </is>
+      </c>
+      <c r="AD155" t="inlineStr">
+        <is>
+          <t>08:01:58</t>
+        </is>
+      </c>
+      <c r="AE155" t="inlineStr">
+        <is>
+          <t>14:26:03</t>
+        </is>
+      </c>
+      <c r="AF155" t="inlineStr">
+        <is>
+          <t>08:03:49</t>
+        </is>
+      </c>
+      <c r="AG155" t="inlineStr">
+        <is>
+          <t>15:06:56</t>
+        </is>
+      </c>
+      <c r="AH155" t="inlineStr">
+        <is>
+          <t>08:05:03</t>
+        </is>
+      </c>
+      <c r="AI155" t="inlineStr">
+        <is>
+          <t>15:25:42</t>
+        </is>
+      </c>
+      <c r="AJ155" t="inlineStr">
+        <is>
+          <t>08:04:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>08:17:51</t>
+        </is>
+      </c>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>09:28:11</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>09:19:29</t>
+        </is>
+      </c>
+      <c r="W156" t="inlineStr">
+        <is>
+          <t>14:30:55</t>
+        </is>
+      </c>
+      <c r="X156" t="inlineStr">
+        <is>
+          <t>09:11:07</t>
+        </is>
+      </c>
+      <c r="Y156" t="inlineStr">
+        <is>
+          <t>13:19:58</t>
+        </is>
+      </c>
+      <c r="AD156" t="inlineStr">
+        <is>
+          <t>10:07:08</t>
+        </is>
+      </c>
+      <c r="AE156" t="inlineStr">
+        <is>
+          <t>14:00:19</t>
+        </is>
+      </c>
+      <c r="AF156" t="inlineStr">
+        <is>
+          <t>09:30:34</t>
+        </is>
+      </c>
+      <c r="AG156" t="inlineStr">
+        <is>
+          <t>13:49:19</t>
+        </is>
+      </c>
+      <c r="AH156" t="inlineStr">
+        <is>
+          <t>09:11:47</t>
+        </is>
+      </c>
+      <c r="AI156" t="inlineStr">
+        <is>
+          <t>13:44:24</t>
+        </is>
+      </c>
+      <c r="AJ156" t="inlineStr">
+        <is>
+          <t>09:10:01</t>
+        </is>
+      </c>
+      <c r="AK156" t="inlineStr">
+        <is>
+          <t>13:38:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>07:57:36</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>15:52:49</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>08:08:52</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>15:01:33</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>08:28:05</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>14:42:29</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>15:56:17</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>08:01:41</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>15:45:44</t>
+        </is>
+      </c>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>08:07:57</t>
+        </is>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>15:42:54</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>08:01:55</t>
+        </is>
+      </c>
+      <c r="W157" t="inlineStr">
+        <is>
+          <t>15:52:17</t>
+        </is>
+      </c>
+      <c r="AD157" t="inlineStr">
+        <is>
+          <t>08:02:46</t>
+        </is>
+      </c>
+      <c r="AE157" t="inlineStr">
+        <is>
+          <t>15:47:12</t>
+        </is>
+      </c>
+      <c r="AF157" t="inlineStr">
+        <is>
+          <t>07:56:44</t>
+        </is>
+      </c>
+      <c r="AG157" t="inlineStr">
+        <is>
+          <t>16:37:31</t>
+        </is>
+      </c>
+      <c r="AH157" t="inlineStr">
+        <is>
+          <t>08:06:12</t>
+        </is>
+      </c>
+      <c r="AI157" t="inlineStr">
+        <is>
+          <t>16:02:23</t>
+        </is>
+      </c>
+      <c r="AJ157" t="inlineStr">
+        <is>
+          <t>08:16:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>08:03:04</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>14:50:29</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>09:57:38</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>14:10:32</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>08:16:14</t>
+        </is>
+      </c>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>08:11:22</t>
+        </is>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>15:47:23</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>08:03:35</t>
+        </is>
+      </c>
+      <c r="W158" t="inlineStr">
+        <is>
+          <t>15:51:22</t>
+        </is>
+      </c>
+      <c r="X158" t="inlineStr">
+        <is>
+          <t>08:04:38</t>
+        </is>
+      </c>
+      <c r="Y158" t="inlineStr">
+        <is>
+          <t>15:39:34</t>
+        </is>
+      </c>
+      <c r="AD158" t="inlineStr">
+        <is>
+          <t>08:13:00</t>
+        </is>
+      </c>
+      <c r="AE158" t="inlineStr">
+        <is>
+          <t>15:58:22</t>
+        </is>
+      </c>
+      <c r="AF158" t="inlineStr">
+        <is>
+          <t>08:03:18</t>
+        </is>
+      </c>
+      <c r="AG158" t="inlineStr">
+        <is>
+          <t>15:57:20</t>
+        </is>
+      </c>
+      <c r="AH158" t="inlineStr">
+        <is>
+          <t>07:56:34</t>
+        </is>
+      </c>
+      <c r="AI158" t="inlineStr">
+        <is>
+          <t>14:46:49</t>
+        </is>
+      </c>
+      <c r="AJ158" t="inlineStr">
+        <is>
+          <t>08:02:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="AD159" t="inlineStr">
+        <is>
+          <t>08:52:07</t>
+        </is>
+      </c>
+      <c r="AE159" t="inlineStr">
+        <is>
+          <t>15:40:44</t>
+        </is>
+      </c>
+      <c r="AF159" t="inlineStr">
+        <is>
+          <t>09:24:52</t>
+        </is>
+      </c>
+      <c r="AG159" t="inlineStr">
+        <is>
+          <t>15:41:44</t>
+        </is>
+      </c>
+      <c r="AH159" t="inlineStr">
+        <is>
+          <t>09:18:21</t>
+        </is>
+      </c>
+      <c r="AI159" t="inlineStr">
+        <is>
+          <t>15:17:56</t>
+        </is>
+      </c>
+      <c r="AJ159" t="inlineStr">
+        <is>
+          <t>09:26:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>09:08:57</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>15:17:47</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>09:25:04</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>10:17:55</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>09:57:45</t>
+        </is>
+      </c>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>08:29:35</t>
+        </is>
+      </c>
+      <c r="W160" t="inlineStr">
+        <is>
+          <t>15:47:54</t>
+        </is>
+      </c>
+      <c r="X160" t="inlineStr">
+        <is>
+          <t>08:08:45</t>
+        </is>
+      </c>
+      <c r="AD160" t="inlineStr">
+        <is>
+          <t>09:12:04</t>
+        </is>
+      </c>
+      <c r="AF160" t="inlineStr">
+        <is>
+          <t>09:05:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="T161" t="inlineStr">
+        <is>
+          <t>11:54:51</t>
+        </is>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>15:46:48</t>
+        </is>
+      </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>08:34:24</t>
+        </is>
+      </c>
+      <c r="W161" t="inlineStr">
+        <is>
+          <t>15:09:31</t>
+        </is>
+      </c>
+      <c r="X161" t="inlineStr">
+        <is>
+          <t>08:20:52</t>
+        </is>
+      </c>
+      <c r="AE161" t="inlineStr">
+        <is>
+          <t>16:00:14</t>
+        </is>
+      </c>
+      <c r="AF161" t="inlineStr">
+        <is>
+          <t>08:15:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>09:04:09</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>13:53:09</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>09:01:27</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>14:19:43</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>08:54:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>09:28:53</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>15:57:15</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>08:26:29</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>15:36:59</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>07:49:21</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>15:57:24</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>07:57:12</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>15:59:09</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>10:33:59</t>
+        </is>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>15:02:43</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>10:43:28</t>
+        </is>
+      </c>
+      <c r="W163" t="inlineStr">
+        <is>
+          <t>15:27:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="AG164" t="inlineStr">
+        <is>
+          <t>15:56:19</t>
+        </is>
+      </c>
+      <c r="AH164" t="inlineStr">
+        <is>
+          <t>08:14:33</t>
+        </is>
+      </c>
+      <c r="AI164" t="inlineStr">
+        <is>
+          <t>15:57:50</t>
+        </is>
+      </c>
+      <c r="AJ164" t="inlineStr">
+        <is>
+          <t>08:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="AG165" t="inlineStr">
+        <is>
+          <t>16:05:04</t>
+        </is>
+      </c>
+      <c r="AH165" t="inlineStr">
+        <is>
+          <t>08:54:30</t>
+        </is>
+      </c>
+      <c r="AI165" t="inlineStr">
+        <is>
+          <t>15:31:10</t>
+        </is>
+      </c>
+      <c r="AJ165" t="inlineStr">
+        <is>
+          <t>09:08:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="AG166" t="inlineStr">
+        <is>
+          <t>15:52:55</t>
+        </is>
+      </c>
+      <c r="AH166" t="inlineStr">
+        <is>
+          <t>08:36:17</t>
+        </is>
+      </c>
+      <c r="AI166" t="inlineStr">
+        <is>
+          <t>15:46:05</t>
+        </is>
+      </c>
+      <c r="AJ166" t="inlineStr">
+        <is>
+          <t>08:34:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="AG167" t="inlineStr">
+        <is>
+          <t>16:48:43</t>
+        </is>
+      </c>
+      <c r="AH167" t="inlineStr">
+        <is>
+          <t>07:06:23</t>
+        </is>
+      </c>
+      <c r="AI167" t="inlineStr">
+        <is>
+          <t>16:50:25</t>
+        </is>
+      </c>
+      <c r="AJ167" t="inlineStr">
+        <is>
+          <t>06:58:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="AG168" t="inlineStr">
+        <is>
+          <t>15:07:21</t>
+        </is>
+      </c>
+      <c r="AH168" t="inlineStr">
+        <is>
+          <t>08:25:01</t>
+        </is>
+      </c>
+      <c r="AI168" t="inlineStr">
+        <is>
+          <t>15:40:00</t>
+        </is>
+      </c>
+      <c r="AJ168" t="inlineStr">
+        <is>
+          <t>08:13:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="AI169" t="inlineStr">
+        <is>
+          <t>15:46:14</t>
+        </is>
+      </c>
+      <c r="AJ169" t="inlineStr">
+        <is>
+          <t>08:59:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="AI170" t="inlineStr">
+        <is>
+          <t>15:42:28</t>
+        </is>
+      </c>
+      <c r="AJ170" t="inlineStr">
+        <is>
+          <t>08:19:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
+      <c r="Z171" t="inlineStr"/>
+      <c r="AA171" t="inlineStr"/>
+      <c r="AB171" t="inlineStr"/>
+      <c r="AC171" t="inlineStr"/>
+      <c r="AD171" t="inlineStr"/>
+      <c r="AE171" t="inlineStr"/>
+      <c r="AF171" t="inlineStr"/>
+      <c r="AG171" t="inlineStr"/>
+      <c r="AH171" t="inlineStr"/>
+      <c r="AI171" t="inlineStr"/>
+      <c r="AJ171" t="inlineStr"/>
+      <c r="AK171" t="inlineStr">
+        <is>
+          <t>14:35:26</t>
+        </is>
+      </c>
+      <c r="AL171" t="inlineStr"/>
+      <c r="AM171" t="inlineStr"/>
+      <c r="AN171" t="inlineStr"/>
+      <c r="AO171" t="inlineStr"/>
+      <c r="AP171" t="inlineStr"/>
+      <c r="AQ171" t="inlineStr"/>
+      <c r="AR171" t="inlineStr"/>
+      <c r="AS171" t="inlineStr"/>
+      <c r="AT171" t="inlineStr"/>
+      <c r="AU171" t="inlineStr"/>
+      <c r="AV171" t="inlineStr"/>
+      <c r="AW171" t="inlineStr"/>
+      <c r="AX171" t="inlineStr"/>
+      <c r="AY171" t="inlineStr"/>
+      <c r="AZ171" t="inlineStr"/>
+      <c r="BA171" t="inlineStr"/>
+      <c r="BB171" t="inlineStr"/>
+      <c r="BC171" t="inlineStr"/>
+      <c r="BD171" t="inlineStr"/>
+      <c r="BE171" t="inlineStr"/>
+      <c r="BF171" t="inlineStr"/>
+      <c r="BG171" t="inlineStr"/>
+      <c r="BH171" t="inlineStr"/>
+      <c r="BI171" t="inlineStr"/>
+      <c r="BJ171" t="inlineStr"/>
+      <c r="BK171" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
